--- a/CashFlow/DXCM_cashflow.xlsx
+++ b/CashFlow/DXCM_cashflow.xlsx
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>546000000.0</v>
+        <v>-147300000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>743000000.0</v>
+        <v>-114500000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>628000000.0</v>
+        <v>-80300000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>424500000.0</v>
+        <v>-47400000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>242700000.0</v>
+        <v>-40900000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>70300000.0</v>
+        <v>-49100000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>-65200000.0</v>
@@ -887,22 +887,22 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>186200000.0</v>
+        <v>416000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>194500000.0</v>
+        <v>529000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>157400000.0</v>
+        <v>468000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>109100000.0</v>
+        <v>341500000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>108700000.0</v>
+        <v>284600000.0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>107800000.0</v>
+        <v>179000000.0</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>100600000.0</v>
@@ -3815,10 +3815,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>17300000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>15300000.0</v>
